--- a/src/test/resources/testdata/SweetBalanceApplication.xlsx
+++ b/src/test/resources/testdata/SweetBalanceApplication.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramakrishna Gutha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshdeshmukh/eclipse-workspace/SweetBalance/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F26A27CA-9316-4D74-885F-0021BF6819F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBF6318-5764-8443-B563-2525CD548F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0557FDE8-250B-4FC3-9078-F337ABD7E635}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{0557FDE8-250B-4FC3-9078-F337ABD7E635}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,12 +35,43 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>dnd.dinesh22@gmail.com</t>
+  </si>
+  <si>
+    <t>ninja@12345</t>
+  </si>
+  <si>
+    <t>pramodini.patil182@gmail.com</t>
+  </si>
+  <si>
+    <t>pramodini@182</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +94,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,12 +444,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27247C5E-F605-40D9-8D72-567114C22F19}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{94AA0D47-FD83-A144-A28B-321DF56C6518}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{5E83C2B6-E8AB-F54B-AD83-2763D4E1A30A}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{BE004523-84D0-2542-B829-3715E981437C}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{654618E9-CAFE-4D46-8912-BC0F19E02CB4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/SweetBalanceApplication.xlsx
+++ b/src/test/resources/testdata/SweetBalanceApplication.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -76,6 +76,17 @@
   <si>
     <t>Donaldduck</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>eureka@gmail.com</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -84,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -104,6 +115,12 @@
       <u val="single"/>
       <sz val="11"/>
       <color indexed="11"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
@@ -186,6 +203,7 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff467886"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -384,17 +402,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="19050" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -422,10 +440,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Aptos Narrow"/>
-            <a:ea typeface="Aptos Narrow"/>
-            <a:cs typeface="Aptos Narrow"/>
-            <a:sym typeface="Aptos Narrow"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -673,12 +691,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="19050" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -965,7 +983,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -993,10 +1011,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Aptos Narrow"/>
-            <a:ea typeface="Aptos Narrow"/>
-            <a:cs typeface="Aptos Narrow"/>
-            <a:sym typeface="Aptos Narrow"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1253,7 +1271,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1797" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.4297" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1313,7 +1333,9 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="3"/>
+      <c r="A6" t="s" s="2">
+        <v>8</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1354,6 +1376,7 @@
     <hyperlink ref="A3" r:id="rId3" location="" tooltip="" display="pramodini.patil182@gmail.com"/>
     <hyperlink ref="B3" r:id="rId4" location="" tooltip="" display="pramodini@182"/>
     <hyperlink ref="A4" r:id="rId5" location="" tooltip="" display="treaty123@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId6" location="" tooltip="" display="eureka@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
